--- a/hardware/V2/production_files/seeed_BOM_v2.xlsx
+++ b/hardware/V2/production_files/seeed_BOM_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/acd746035910d6eb/Documents/Base3/ODRI/repo/master-board/hardware/V2/production_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{EB5D746A-3035-4005-A1A9-ABFEBF7A216A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9372D62A-592D-450C-94A9-B4E6504F76F0}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{EB5D746A-3035-4005-A1A9-ABFEBF7A216A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{895ED5B8-6C48-422A-8EAC-CC64D28AAF65}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1215,13 +1215,16 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
